--- a/public/files/UKFN_SIGs_Call1_summary.xlsx
+++ b/public/files/UKFN_SIGs_Call1_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="22035" windowHeight="9480" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="22035" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Funded proposals" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Institution members" sheetId="10" r:id="rId4"/>
     <sheet name="Subject areas" sheetId="11" r:id="rId5"/>
     <sheet name="Activities and outputs" sheetId="5" r:id="rId6"/>
-    <sheet name="SIG suggestions" sheetId="4" r:id="rId7"/>
+    <sheet name="Past SIG suggestions" sheetId="4" r:id="rId7"/>
     <sheet name="Captions" sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="Data" sheetId="8" state="hidden" r:id="rId9"/>
   </sheets>
@@ -321,9 +321,6 @@
     <t>Anurag Agarwal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mahdi Azarpeyvand </t>
-  </si>
-  <si>
     <t>Rob Poole</t>
   </si>
   <si>
@@ -2593,6 +2590,9 @@
   </si>
   <si>
     <t>Nottingham Trent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahdi Azarpeyvand </t>
   </si>
 </sst>
 </file>
@@ -2792,7 +2792,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> and leaders</a:t>
+              <a:t> and leaders (all proposals)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3631,11 +3631,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="134834432"/>
-        <c:axId val="142149504"/>
+        <c:axId val="329155712"/>
+        <c:axId val="329157632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134834432"/>
+        <c:axId val="329155712"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3654,7 +3654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142149504"/>
+        <c:crossAx val="329157632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3663,7 +3663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142149504"/>
+        <c:axId val="329157632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,7 +3674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134834432"/>
+        <c:crossAx val="329155712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3763,7 +3763,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Institution members</a:t>
+              <a:t>Institution members (all proposals)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4199,11 +4199,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="281817856"/>
-        <c:axId val="281819392"/>
+        <c:axId val="342866944"/>
+        <c:axId val="342869888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="281817856"/>
+        <c:axId val="342866944"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4222,7 +4222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281819392"/>
+        <c:crossAx val="342869888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4231,7 +4231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281819392"/>
+        <c:axId val="342869888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,7 +4242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281817856"/>
+        <c:crossAx val="342866944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4318,7 +4318,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Subject areas</a:t>
+              <a:t>Subject areas (all proposals)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4568,11 +4568,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="281841024"/>
-        <c:axId val="281855104"/>
+        <c:axId val="345502848"/>
+        <c:axId val="345522560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="281841024"/>
+        <c:axId val="345502848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4581,7 +4581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281855104"/>
+        <c:crossAx val="345522560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4589,7 +4589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281855104"/>
+        <c:axId val="345522560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4602,7 +4602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281841024"/>
+        <c:crossAx val="345502848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -5057,7 +5057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5072,7 +5072,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="19"/>
@@ -5082,17 +5082,17 @@
     </row>
     <row r="3" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>126</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -5113,7 +5113,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>99</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -5127,13 +5127,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -5187,13 +5187,13 @@
         <v>35</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -5270,10 +5270,10 @@
         <v>97</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -5287,13 +5287,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -5330,10 +5330,10 @@
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -5367,13 +5367,13 @@
         <v>32</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5447,13 +5447,13 @@
         <v>31</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>27</v>
@@ -5470,10 +5470,10 @@
         <v>84</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -5487,13 +5487,13 @@
         <v>46</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -5567,13 +5567,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -5587,13 +5587,13 @@
         <v>41</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -5607,13 +5607,13 @@
         <v>38</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5625,9 +5625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5639,7 +5637,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="19"/>
@@ -5647,16 +5645,16 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>126</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>795</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>796</v>
       </c>
       <c r="G3" s="12"/>
     </row>
@@ -5679,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D5" t="s">
         <v>74</v>
@@ -5735,7 +5733,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -5749,7 +5747,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -5825,7 +5823,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -5875,7 +5873,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
@@ -5889,13 +5887,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D20" t="s">
         <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -5909,7 +5907,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -5917,7 +5915,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
@@ -5931,7 +5929,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -5945,7 +5943,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -5959,7 +5957,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D25" t="s">
         <v>94</v>
@@ -6001,13 +5999,13 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -6063,7 +6061,7 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -6077,7 +6075,7 @@
         <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -6085,7 +6083,7 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -6113,7 +6111,7 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
@@ -6127,7 +6125,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -6155,7 +6153,7 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D39" t="s">
         <v>71</v>
@@ -6169,7 +6167,7 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D40" t="s">
         <v>59</v>
@@ -6183,7 +6181,7 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
@@ -6225,7 +6223,7 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -6259,7 +6257,7 @@
         <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -6267,10 +6265,10 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>31</v>
@@ -6281,10 +6279,10 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
         <v>71</v>
@@ -6301,7 +6299,7 @@
         <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6328,7 +6326,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="15"/>
@@ -6339,32 +6337,32 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -6372,32 +6370,32 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -6405,32 +6403,32 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -6438,32 +6436,32 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -6471,32 +6469,32 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -6504,32 +6502,32 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -6537,32 +6535,32 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D30" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -6570,32 +6568,32 @@
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D32" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D33" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D34" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -6603,32 +6601,32 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D37" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -6636,40 +6634,40 @@
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D41" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -6677,24 +6675,24 @@
         <v>11</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D46" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +6704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6721,7 +6719,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -6733,156 +6731,156 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>712</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
         <v>128</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>129</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>97</v>
       </c>
       <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
         <v>133</v>
-      </c>
-      <c r="E5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
         <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>140</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
         <v>142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>143</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
         <v>139</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>140</v>
-      </c>
-      <c r="E9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
         <v>145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
         <v>149</v>
       </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>150</v>
-      </c>
-      <c r="E11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
         <v>152</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>153</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>154</v>
-      </c>
-      <c r="E13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -6890,13 +6888,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
         <v>156</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>157</v>
-      </c>
-      <c r="E14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -6904,13 +6902,13 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
         <v>159</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>160</v>
-      </c>
-      <c r="E15" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -6918,13 +6916,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
         <v>162</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>163</v>
-      </c>
-      <c r="E16" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -6935,10 +6933,10 @@
         <v>63</v>
       </c>
       <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
         <v>165</v>
-      </c>
-      <c r="E17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -6946,13 +6944,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
         <v>167</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>168</v>
-      </c>
-      <c r="E18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -6960,32 +6958,32 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
         <v>170</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>171</v>
-      </c>
-      <c r="E19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
         <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
         <v>98</v>
@@ -6994,404 +6992,404 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
         <v>178</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>179</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>180</v>
-      </c>
-      <c r="E23" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
         <v>182</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>183</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>184</v>
-      </c>
-      <c r="E24" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
         <v>183</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>184</v>
-      </c>
-      <c r="E25" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
         <v>186</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>187</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>188</v>
-      </c>
-      <c r="E26" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
         <v>190</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>191</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>192</v>
-      </c>
-      <c r="E27" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" t="s">
         <v>194</v>
-      </c>
-      <c r="C28" t="s">
-        <v>195</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="s">
         <v>197</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>198</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>199</v>
-      </c>
-      <c r="E29" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
         <v>201</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>202</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>203</v>
-      </c>
-      <c r="E30" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
         <v>205</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>206</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>207</v>
-      </c>
-      <c r="E31" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
         <v>209</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>210</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>211</v>
-      </c>
-      <c r="E32" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
         <v>202</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>203</v>
-      </c>
-      <c r="E33" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
         <v>214</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>215</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>216</v>
-      </c>
-      <c r="E34" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" t="s">
         <v>218</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>219</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>220</v>
-      </c>
-      <c r="E35" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" t="s">
         <v>228</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>229</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>230</v>
-      </c>
-      <c r="E36" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" t="s">
         <v>232</v>
-      </c>
-      <c r="C37" t="s">
-        <v>233</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" t="s">
         <v>236</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>237</v>
-      </c>
-      <c r="E39" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
         <v>239</v>
-      </c>
-      <c r="D40" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" t="s">
         <v>241</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>242</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>243</v>
-      </c>
-      <c r="E43" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" t="s">
         <v>222</v>
       </c>
-      <c r="C44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>223</v>
-      </c>
-      <c r="E44" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
         <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" t="s">
         <v>249</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" t="s">
         <v>250</v>
-      </c>
-      <c r="D47" t="s">
-        <v>243</v>
-      </c>
-      <c r="E47" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" t="s">
         <v>252</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" t="s">
         <v>253</v>
-      </c>
-      <c r="D48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" t="s">
         <v>225</v>
-      </c>
-      <c r="C49" t="s">
-        <v>226</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -7400,306 +7398,306 @@
         <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" t="s">
         <v>257</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" t="s">
         <v>258</v>
-      </c>
-      <c r="D51" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" t="s">
         <v>260</v>
-      </c>
-      <c r="C52" t="s">
-        <v>261</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" t="s">
         <v>263</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>264</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>265</v>
-      </c>
-      <c r="E53" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
       </c>
       <c r="D54" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54" t="s">
         <v>272</v>
-      </c>
-      <c r="E54" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" t="s">
         <v>267</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>268</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>269</v>
-      </c>
-      <c r="E55" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" t="s">
         <v>156</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>157</v>
-      </c>
-      <c r="E56" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" t="s">
         <v>275</v>
-      </c>
-      <c r="C57" t="s">
-        <v>276</v>
       </c>
       <c r="D57" t="s">
         <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" t="s">
         <v>187</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>188</v>
-      </c>
-      <c r="E58" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" t="s">
         <v>278</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>279</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>280</v>
-      </c>
-      <c r="E59" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" t="s">
         <v>239</v>
-      </c>
-      <c r="D60" t="s">
-        <v>199</v>
-      </c>
-      <c r="E60" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" t="s">
         <v>282</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>283</v>
-      </c>
-      <c r="E61" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
         <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" t="s">
         <v>229</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>230</v>
-      </c>
-      <c r="E63" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" t="s">
         <v>287</v>
-      </c>
-      <c r="C64" t="s">
-        <v>288</v>
       </c>
       <c r="D64" t="s">
         <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
         <v>159</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>160</v>
-      </c>
-      <c r="E65" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D66" t="s">
         <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C67" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" t="s">
         <v>292</v>
-      </c>
-      <c r="D67" t="s">
-        <v>168</v>
-      </c>
-      <c r="E67" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" t="s">
         <v>294</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>295</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>296</v>
-      </c>
-      <c r="E68" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C69" t="s">
         <v>298</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>299</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>300</v>
-      </c>
-      <c r="E69" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
         <v>215</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>216</v>
-      </c>
-      <c r="E70" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
         <v>94</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
@@ -7708,670 +7706,670 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" t="s">
         <v>306</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>307</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>308</v>
-      </c>
-      <c r="E73" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C74" t="s">
         <v>97</v>
       </c>
       <c r="D74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="s">
         <v>133</v>
-      </c>
-      <c r="E74" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" t="s">
         <v>310</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" t="s">
         <v>311</v>
-      </c>
-      <c r="D75" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
         <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" t="s">
         <v>315</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" t="s">
         <v>316</v>
-      </c>
-      <c r="D77" t="s">
-        <v>199</v>
-      </c>
-      <c r="E77" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" t="s">
         <v>318</v>
-      </c>
-      <c r="C78" t="s">
-        <v>319</v>
       </c>
       <c r="D78" t="s">
         <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
         <v>94</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" t="s">
         <v>322</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" t="s">
         <v>323</v>
-      </c>
-      <c r="D80" t="s">
-        <v>140</v>
-      </c>
-      <c r="E80" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" t="s">
         <v>325</v>
-      </c>
-      <c r="C81" t="s">
-        <v>326</v>
       </c>
       <c r="D81" t="s">
         <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" t="s">
         <v>170</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>171</v>
-      </c>
-      <c r="E82" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" t="s">
         <v>329</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>330</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>331</v>
-      </c>
-      <c r="E83" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" t="s">
         <v>336</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>333</v>
+      </c>
+      <c r="E84" t="s">
         <v>337</v>
-      </c>
-      <c r="D84" t="s">
-        <v>334</v>
-      </c>
-      <c r="E84" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C85" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" t="s">
+        <v>333</v>
+      </c>
+      <c r="E85" t="s">
         <v>339</v>
-      </c>
-      <c r="D85" t="s">
-        <v>334</v>
-      </c>
-      <c r="E85" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" t="s">
         <v>341</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" t="s">
         <v>342</v>
-      </c>
-      <c r="D86" t="s">
-        <v>237</v>
-      </c>
-      <c r="E86" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" t="s">
         <v>333</v>
       </c>
-      <c r="C87" t="s">
-        <v>114</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>334</v>
-      </c>
-      <c r="E87" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" t="s">
         <v>344</v>
-      </c>
-      <c r="C88" t="s">
-        <v>345</v>
       </c>
       <c r="D88" t="s">
         <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C89" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" t="s">
         <v>202</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>203</v>
-      </c>
-      <c r="E89" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s">
         <v>153</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>154</v>
-      </c>
-      <c r="E90" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C91" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" t="s">
         <v>198</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>199</v>
-      </c>
-      <c r="E91" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" t="s">
         <v>350</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>351</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>352</v>
-      </c>
-      <c r="E92" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" t="s">
         <v>53</v>
       </c>
       <c r="E93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s">
         <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" t="s">
         <v>129</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>130</v>
-      </c>
-      <c r="E95" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C96" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" t="s">
         <v>236</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>237</v>
-      </c>
-      <c r="E96" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" t="s">
         <v>139</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>140</v>
-      </c>
-      <c r="E97" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" t="s">
         <v>359</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" t="s">
         <v>360</v>
-      </c>
-      <c r="D98" t="s">
-        <v>130</v>
-      </c>
-      <c r="E98" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D99" t="s">
         <v>36</v>
       </c>
       <c r="E99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="C100" t="s">
         <v>362</v>
-      </c>
-      <c r="C100" t="s">
-        <v>363</v>
       </c>
       <c r="D100" t="s">
         <v>55</v>
       </c>
       <c r="E100" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" t="s">
         <v>365</v>
       </c>
-      <c r="C101" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" t="s">
-        <v>366</v>
-      </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C102" t="s">
+        <v>294</v>
+      </c>
+      <c r="D102" t="s">
         <v>295</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>296</v>
-      </c>
-      <c r="E102" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" t="s">
         <v>368</v>
-      </c>
-      <c r="C103" t="s">
-        <v>369</v>
       </c>
       <c r="D103" t="s">
         <v>31</v>
       </c>
       <c r="E103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C104" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" t="s">
         <v>210</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>211</v>
-      </c>
-      <c r="E104" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C105" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" t="s">
         <v>206</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>207</v>
-      </c>
-      <c r="E105" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" t="s">
         <v>153</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>154</v>
-      </c>
-      <c r="E106" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C107" t="s">
+        <v>155</v>
+      </c>
+      <c r="D107" t="s">
         <v>156</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>157</v>
-      </c>
-      <c r="E107" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" t="s">
         <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C109" t="s">
+        <v>205</v>
+      </c>
+      <c r="D109" t="s">
         <v>206</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>207</v>
-      </c>
-      <c r="E109" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" t="s">
         <v>229</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>230</v>
-      </c>
-      <c r="E110" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" t="s">
         <v>375</v>
-      </c>
-      <c r="C111" t="s">
-        <v>376</v>
       </c>
       <c r="D111" t="s">
         <v>32</v>
       </c>
       <c r="E111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D112" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" t="s">
         <v>150</v>
-      </c>
-      <c r="E112" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C113" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" t="s">
         <v>379</v>
       </c>
-      <c r="C113" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>380</v>
-      </c>
-      <c r="E113" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C114" t="s">
         <v>85</v>
       </c>
       <c r="D114" t="s">
+        <v>382</v>
+      </c>
+      <c r="E114" t="s">
         <v>383</v>
-      </c>
-      <c r="E114" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" t="s">
         <v>150</v>
-      </c>
-      <c r="E115" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D116" t="s">
         <v>43</v>
       </c>
       <c r="E116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D117" t="s">
         <v>94</v>
       </c>
       <c r="E117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C118" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" t="s">
         <v>153</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>154</v>
-      </c>
-      <c r="E118" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119" t="s">
         <v>389</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>390</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>391</v>
-      </c>
-      <c r="E119" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C120" t="s">
         <v>81</v>
@@ -8380,110 +8378,110 @@
         <v>32</v>
       </c>
       <c r="E120" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121" t="s">
         <v>395</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>162</v>
+      </c>
+      <c r="E121" t="s">
         <v>396</v>
-      </c>
-      <c r="D121" t="s">
-        <v>163</v>
-      </c>
-      <c r="E121" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C122" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E122" t="s">
         <v>239</v>
-      </c>
-      <c r="D122" t="s">
-        <v>199</v>
-      </c>
-      <c r="E122" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D123" t="s">
         <v>53</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D124" t="s">
         <v>94</v>
       </c>
       <c r="E124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D125" t="s">
         <v>36</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C126" t="s">
         <v>401</v>
-      </c>
-      <c r="C126" t="s">
-        <v>402</v>
       </c>
       <c r="D126" t="s">
         <v>36</v>
       </c>
       <c r="E126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" t="s">
         <v>153</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>154</v>
-      </c>
-      <c r="E127" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C128" t="s">
         <v>56</v>
@@ -8492,82 +8490,82 @@
         <v>33</v>
       </c>
       <c r="E128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C129" t="s">
         <v>80</v>
       </c>
       <c r="D129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C130" t="s">
         <v>408</v>
-      </c>
-      <c r="C130" t="s">
-        <v>409</v>
       </c>
       <c r="D130" t="s">
         <v>53</v>
       </c>
       <c r="E130" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C131" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" t="s">
         <v>153</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>154</v>
-      </c>
-      <c r="E131" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="C132" t="s">
         <v>412</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>198</v>
+      </c>
+      <c r="E132" t="s">
         <v>413</v>
-      </c>
-      <c r="D132" t="s">
-        <v>199</v>
-      </c>
-      <c r="E132" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C133" t="s">
+        <v>238</v>
+      </c>
+      <c r="D133" t="s">
+        <v>198</v>
+      </c>
+      <c r="E133" t="s">
         <v>239</v>
-      </c>
-      <c r="D133" t="s">
-        <v>199</v>
-      </c>
-      <c r="E133" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C134" t="s">
         <v>81</v>
@@ -8576,26 +8574,26 @@
         <v>32</v>
       </c>
       <c r="E134" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C135" t="s">
         <v>416</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>129</v>
+      </c>
+      <c r="E135" t="s">
         <v>417</v>
-      </c>
-      <c r="D135" t="s">
-        <v>130</v>
-      </c>
-      <c r="E135" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C136" t="s">
         <v>62</v>
@@ -8604,35 +8602,35 @@
         <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C137" t="s">
         <v>419</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>420</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>421</v>
-      </c>
-      <c r="E137" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C138" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D138" t="s">
         <v>35</v>
       </c>
       <c r="E138" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
@@ -8640,382 +8638,382 @@
         <v>23</v>
       </c>
       <c r="C139" t="s">
+        <v>425</v>
+      </c>
+      <c r="D139" t="s">
+        <v>167</v>
+      </c>
+      <c r="E139" t="s">
         <v>426</v>
-      </c>
-      <c r="D139" t="s">
-        <v>168</v>
-      </c>
-      <c r="E139" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D140" t="s">
         <v>53</v>
       </c>
       <c r="E140" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C141" t="s">
         <v>86</v>
       </c>
       <c r="D141" t="s">
+        <v>429</v>
+      </c>
+      <c r="E141" t="s">
         <v>430</v>
-      </c>
-      <c r="E141" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C142" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" t="s">
         <v>429</v>
       </c>
-      <c r="C142" t="s">
-        <v>113</v>
-      </c>
-      <c r="D142" t="s">
-        <v>430</v>
-      </c>
       <c r="E142" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D143" t="s">
+        <v>379</v>
+      </c>
+      <c r="E143" t="s">
         <v>380</v>
-      </c>
-      <c r="E143" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C144" t="s">
         <v>82</v>
       </c>
       <c r="D144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C145" t="s">
         <v>434</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>149</v>
+      </c>
+      <c r="E145" t="s">
         <v>435</v>
-      </c>
-      <c r="D145" t="s">
-        <v>150</v>
-      </c>
-      <c r="E145" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="C146" t="s">
         <v>437</v>
-      </c>
-      <c r="C146" t="s">
-        <v>438</v>
       </c>
       <c r="D146" t="s">
         <v>59</v>
       </c>
       <c r="E146" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C147" t="s">
         <v>453</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>454</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>455</v>
-      </c>
-      <c r="E147" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C148" t="s">
+        <v>152</v>
+      </c>
+      <c r="D148" t="s">
         <v>153</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>154</v>
-      </c>
-      <c r="E148" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C149" t="s">
         <v>440</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>441</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>442</v>
-      </c>
-      <c r="E149" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C150" t="s">
         <v>444</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>139</v>
+      </c>
+      <c r="E150" t="s">
         <v>445</v>
-      </c>
-      <c r="D150" t="s">
-        <v>140</v>
-      </c>
-      <c r="E150" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" t="s">
+        <v>114</v>
+      </c>
+      <c r="D151" t="s">
+        <v>115</v>
+      </c>
+      <c r="E151" t="s">
         <v>447</v>
-      </c>
-      <c r="C151" t="s">
-        <v>115</v>
-      </c>
-      <c r="D151" t="s">
-        <v>116</v>
-      </c>
-      <c r="E151" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D152" t="s">
         <v>43</v>
       </c>
       <c r="E152" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D153" t="s">
+        <v>149</v>
+      </c>
+      <c r="E153" t="s">
         <v>150</v>
-      </c>
-      <c r="E153" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D154" t="s">
         <v>40</v>
       </c>
       <c r="E154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C155" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D155" t="s">
         <v>94</v>
       </c>
       <c r="E155" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C156" t="s">
         <v>457</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>458</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>459</v>
-      </c>
-      <c r="E156" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C157" t="s">
         <v>461</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>162</v>
+      </c>
+      <c r="E157" t="s">
         <v>462</v>
-      </c>
-      <c r="D157" t="s">
-        <v>163</v>
-      </c>
-      <c r="E157" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="C158" t="s">
         <v>464</v>
-      </c>
-      <c r="C158" t="s">
-        <v>465</v>
       </c>
       <c r="D158" t="s">
         <v>36</v>
       </c>
       <c r="E158" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C159" t="s">
+        <v>291</v>
+      </c>
+      <c r="D159" t="s">
+        <v>167</v>
+      </c>
+      <c r="E159" t="s">
         <v>292</v>
-      </c>
-      <c r="D159" t="s">
-        <v>168</v>
-      </c>
-      <c r="E159" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C160" t="s">
+        <v>158</v>
+      </c>
+      <c r="D160" t="s">
         <v>159</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>160</v>
-      </c>
-      <c r="E160" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C161" t="s">
+        <v>471</v>
+      </c>
+      <c r="D161" t="s">
         <v>472</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>473</v>
-      </c>
-      <c r="E161" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="C162" t="s">
         <v>467</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>468</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>469</v>
-      </c>
-      <c r="E162" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C163" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D163" t="s">
         <v>31</v>
       </c>
       <c r="E163" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D164" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" t="s">
         <v>150</v>
-      </c>
-      <c r="E164" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C165" t="s">
+        <v>425</v>
+      </c>
+      <c r="D165" t="s">
+        <v>167</v>
+      </c>
+      <c r="E165" t="s">
         <v>426</v>
-      </c>
-      <c r="D165" t="s">
-        <v>168</v>
-      </c>
-      <c r="E165" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C166" t="s">
         <v>92</v>
@@ -9024,54 +9022,54 @@
         <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C167" t="s">
+        <v>155</v>
+      </c>
+      <c r="D167" t="s">
         <v>156</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>157</v>
-      </c>
-      <c r="E167" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C168" t="s">
+        <v>263</v>
+      </c>
+      <c r="D168" t="s">
         <v>264</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>265</v>
-      </c>
-      <c r="E168" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D169" t="s">
         <v>94</v>
       </c>
       <c r="E169" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C170" t="s">
         <v>72</v>
@@ -9080,642 +9078,642 @@
         <v>28</v>
       </c>
       <c r="E170" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C171" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D171" t="s">
         <v>94</v>
       </c>
       <c r="E171" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C172" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D172" t="s">
         <v>36</v>
       </c>
       <c r="E172" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C173" t="s">
+        <v>205</v>
+      </c>
+      <c r="D173" t="s">
         <v>206</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>207</v>
-      </c>
-      <c r="E173" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C174" t="s">
+        <v>419</v>
+      </c>
+      <c r="D174" t="s">
         <v>420</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>421</v>
-      </c>
-      <c r="E174" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C175" t="s">
+        <v>186</v>
+      </c>
+      <c r="D175" t="s">
         <v>187</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>188</v>
-      </c>
-      <c r="E175" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C176" t="s">
+        <v>238</v>
+      </c>
+      <c r="D176" t="s">
+        <v>198</v>
+      </c>
+      <c r="E176" t="s">
         <v>239</v>
-      </c>
-      <c r="D176" t="s">
-        <v>199</v>
-      </c>
-      <c r="E176" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C177" t="s">
+        <v>158</v>
+      </c>
+      <c r="D177" t="s">
         <v>159</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>160</v>
-      </c>
-      <c r="E177" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C178" t="s">
+        <v>201</v>
+      </c>
+      <c r="D178" t="s">
         <v>202</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>203</v>
-      </c>
-      <c r="E178" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C179" t="s">
         <v>489</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
+        <v>198</v>
+      </c>
+      <c r="E179" t="s">
         <v>490</v>
-      </c>
-      <c r="D179" t="s">
-        <v>199</v>
-      </c>
-      <c r="E179" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C180" t="s">
+        <v>294</v>
+      </c>
+      <c r="D180" t="s">
         <v>295</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>296</v>
-      </c>
-      <c r="E180" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="C181" t="s">
         <v>493</v>
-      </c>
-      <c r="C181" t="s">
-        <v>494</v>
       </c>
       <c r="D181" t="s">
         <v>36</v>
       </c>
       <c r="E181" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C182" t="s">
+        <v>495</v>
+      </c>
+      <c r="D182" t="s">
         <v>496</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>497</v>
-      </c>
-      <c r="E182" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C183" t="s">
+        <v>169</v>
+      </c>
+      <c r="D183" t="s">
         <v>170</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>171</v>
-      </c>
-      <c r="E183" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C184" t="s">
         <v>93</v>
       </c>
       <c r="D184" t="s">
+        <v>500</v>
+      </c>
+      <c r="E184" t="s">
         <v>501</v>
-      </c>
-      <c r="E184" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C185" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D185" t="s">
         <v>44</v>
       </c>
       <c r="E185" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C186" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D186" t="s">
         <v>94</v>
       </c>
       <c r="E186" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C187" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D187" t="s">
         <v>43</v>
       </c>
       <c r="E187" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C188" t="s">
         <v>506</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
+        <v>149</v>
+      </c>
+      <c r="E188" t="s">
         <v>507</v>
-      </c>
-      <c r="D188" t="s">
-        <v>150</v>
-      </c>
-      <c r="E188" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C189" t="s">
+        <v>155</v>
+      </c>
+      <c r="D189" t="s">
         <v>156</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>157</v>
-      </c>
-      <c r="E189" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C190" t="s">
+        <v>238</v>
+      </c>
+      <c r="D190" t="s">
+        <v>198</v>
+      </c>
+      <c r="E190" t="s">
         <v>239</v>
-      </c>
-      <c r="D190" t="s">
-        <v>199</v>
-      </c>
-      <c r="E190" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C191" t="s">
+        <v>467</v>
+      </c>
+      <c r="D191" t="s">
         <v>468</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>469</v>
-      </c>
-      <c r="E191" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C192" t="s">
         <v>97</v>
       </c>
       <c r="D192" t="s">
+        <v>132</v>
+      </c>
+      <c r="E192" t="s">
         <v>133</v>
-      </c>
-      <c r="E192" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C193" t="s">
+        <v>228</v>
+      </c>
+      <c r="D193" t="s">
         <v>229</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>230</v>
-      </c>
-      <c r="E193" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C194" t="s">
+        <v>489</v>
+      </c>
+      <c r="D194" t="s">
+        <v>198</v>
+      </c>
+      <c r="E194" t="s">
         <v>490</v>
-      </c>
-      <c r="D194" t="s">
-        <v>199</v>
-      </c>
-      <c r="E194" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="C195" t="s">
         <v>514</v>
-      </c>
-      <c r="C195" t="s">
-        <v>515</v>
       </c>
       <c r="D195" t="s">
         <v>30</v>
       </c>
       <c r="E195" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C196" t="s">
         <v>517</v>
-      </c>
-      <c r="C196" t="s">
-        <v>518</v>
       </c>
       <c r="D196" t="s">
         <v>32</v>
       </c>
       <c r="E196" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C197" t="s">
+        <v>209</v>
+      </c>
+      <c r="D197" t="s">
         <v>210</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>211</v>
-      </c>
-      <c r="E197" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="C198" t="s">
         <v>521</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
+        <v>458</v>
+      </c>
+      <c r="E198" t="s">
         <v>522</v>
-      </c>
-      <c r="D198" t="s">
-        <v>459</v>
-      </c>
-      <c r="E198" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C199" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D199" t="s">
         <v>44</v>
       </c>
       <c r="E199" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C200" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D200" t="s">
         <v>43</v>
       </c>
       <c r="E200" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="C201" t="s">
         <v>526</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>527</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>528</v>
-      </c>
-      <c r="E201" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C202" t="s">
+        <v>310</v>
+      </c>
+      <c r="D202" t="s">
+        <v>183</v>
+      </c>
+      <c r="E202" t="s">
         <v>311</v>
-      </c>
-      <c r="D202" t="s">
-        <v>184</v>
-      </c>
-      <c r="E202" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="C203" t="s">
         <v>531</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>532</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>533</v>
-      </c>
-      <c r="E203" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C204" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D204" t="s">
         <v>43</v>
       </c>
       <c r="E204" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="C205" t="s">
         <v>535</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>536</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>537</v>
-      </c>
-      <c r="E205" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="C206" t="s">
         <v>539</v>
-      </c>
-      <c r="C206" t="s">
-        <v>540</v>
       </c>
       <c r="D206" t="s">
         <v>31</v>
       </c>
       <c r="E206" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="C207" t="s">
         <v>545</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
+        <v>139</v>
+      </c>
+      <c r="E207" t="s">
         <v>546</v>
-      </c>
-      <c r="D207" t="s">
-        <v>140</v>
-      </c>
-      <c r="E207" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C208" t="s">
+        <v>257</v>
+      </c>
+      <c r="D208" t="s">
+        <v>162</v>
+      </c>
+      <c r="E208" t="s">
         <v>258</v>
-      </c>
-      <c r="D208" t="s">
-        <v>163</v>
-      </c>
-      <c r="E208" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C209" t="s">
+        <v>152</v>
+      </c>
+      <c r="D209" t="s">
         <v>153</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>154</v>
-      </c>
-      <c r="E209" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C210" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D210" t="s">
         <v>31</v>
       </c>
       <c r="E210" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="C211" t="s">
         <v>551</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>552</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>553</v>
-      </c>
-      <c r="E211" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C212" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D212" t="s">
         <v>55</v>
       </c>
       <c r="E212" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C213" t="s">
+        <v>281</v>
+      </c>
+      <c r="D213" t="s">
         <v>282</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>283</v>
-      </c>
-      <c r="E213" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C214" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D214" t="s">
         <v>30</v>
       </c>
       <c r="E214" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C215" t="s">
+        <v>310</v>
+      </c>
+      <c r="D215" t="s">
+        <v>183</v>
+      </c>
+      <c r="E215" t="s">
         <v>311</v>
-      </c>
-      <c r="D215" t="s">
-        <v>184</v>
-      </c>
-      <c r="E215" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C216" t="s">
         <v>90</v>
@@ -9724,21 +9722,21 @@
         <v>30</v>
       </c>
       <c r="E216" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C217" t="s">
+        <v>214</v>
+      </c>
+      <c r="D217" t="s">
         <v>215</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>216</v>
-      </c>
-      <c r="E217" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.25">
@@ -9746,18 +9744,18 @@
         <v>18</v>
       </c>
       <c r="C218" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D218" t="s">
         <v>31</v>
       </c>
       <c r="E218" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C219" t="s">
         <v>69</v>
@@ -9766,40 +9764,40 @@
         <v>28</v>
       </c>
       <c r="E219" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C220" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D220" t="s">
         <v>43</v>
       </c>
       <c r="E220" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C221" t="s">
         <v>70</v>
       </c>
       <c r="D221" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E221" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C222" t="s">
         <v>56</v>
@@ -9808,21 +9806,21 @@
         <v>33</v>
       </c>
       <c r="E222" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C223" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D223" t="s">
         <v>55</v>
       </c>
       <c r="E223" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.25">
@@ -9830,620 +9828,620 @@
         <v>17</v>
       </c>
       <c r="C224" t="s">
+        <v>152</v>
+      </c>
+      <c r="D224" t="s">
         <v>153</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>154</v>
-      </c>
-      <c r="E224" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C225" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D225" t="s">
+        <v>149</v>
+      </c>
+      <c r="E225" t="s">
         <v>150</v>
-      </c>
-      <c r="E225" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="C226" t="s">
         <v>567</v>
-      </c>
-      <c r="C226" t="s">
-        <v>568</v>
       </c>
       <c r="D226" t="s">
         <v>31</v>
       </c>
       <c r="E226" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C227" t="s">
         <v>75</v>
       </c>
       <c r="D227" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E227" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C228" t="s">
+        <v>467</v>
+      </c>
+      <c r="D228" t="s">
         <v>468</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>469</v>
-      </c>
-      <c r="E228" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C229" t="s">
+        <v>110</v>
+      </c>
+      <c r="D229" t="s">
+        <v>236</v>
+      </c>
+      <c r="E229" t="s">
         <v>574</v>
-      </c>
-      <c r="C229" t="s">
-        <v>111</v>
-      </c>
-      <c r="D229" t="s">
-        <v>237</v>
-      </c>
-      <c r="E229" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C230" t="s">
+        <v>152</v>
+      </c>
+      <c r="D230" t="s">
         <v>153</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>154</v>
-      </c>
-      <c r="E230" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="C231" t="s">
         <v>577</v>
-      </c>
-      <c r="C231" t="s">
-        <v>578</v>
       </c>
       <c r="D231" t="s">
         <v>28</v>
       </c>
       <c r="E231" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="C232" t="s">
         <v>580</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>581</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>582</v>
-      </c>
-      <c r="E232" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="C233" t="s">
         <v>584</v>
-      </c>
-      <c r="C233" t="s">
-        <v>585</v>
       </c>
       <c r="D233" t="s">
         <v>36</v>
       </c>
       <c r="E233" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C234" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D234" t="s">
         <v>43</v>
       </c>
       <c r="E234" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="C235" t="s">
         <v>590</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
+        <v>198</v>
+      </c>
+      <c r="E235" t="s">
         <v>591</v>
-      </c>
-      <c r="D235" t="s">
-        <v>199</v>
-      </c>
-      <c r="E235" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C236" t="s">
+        <v>592</v>
+      </c>
+      <c r="D236" t="s">
+        <v>198</v>
+      </c>
+      <c r="E236" t="s">
         <v>593</v>
-      </c>
-      <c r="D236" t="s">
-        <v>199</v>
-      </c>
-      <c r="E236" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C237" t="s">
+        <v>594</v>
+      </c>
+      <c r="D237" t="s">
         <v>595</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>596</v>
-      </c>
-      <c r="E237" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C238" t="s">
         <v>95</v>
       </c>
       <c r="D238" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E238" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="C239" t="s">
         <v>598</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
+        <v>379</v>
+      </c>
+      <c r="E239" t="s">
         <v>599</v>
-      </c>
-      <c r="D239" t="s">
-        <v>380</v>
-      </c>
-      <c r="E239" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C240" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D240" t="s">
         <v>94</v>
       </c>
       <c r="E240" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C241" t="s">
+        <v>155</v>
+      </c>
+      <c r="D241" t="s">
         <v>156</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>157</v>
-      </c>
-      <c r="E241" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C242" t="s">
+        <v>551</v>
+      </c>
+      <c r="D242" t="s">
         <v>552</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>553</v>
-      </c>
-      <c r="E242" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C243" t="s">
+        <v>152</v>
+      </c>
+      <c r="D243" t="s">
         <v>153</v>
       </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>154</v>
-      </c>
-      <c r="E243" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C244" t="s">
+        <v>152</v>
+      </c>
+      <c r="D244" t="s">
         <v>153</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>154</v>
-      </c>
-      <c r="E244" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C245" t="s">
+        <v>152</v>
+      </c>
+      <c r="D245" t="s">
         <v>153</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>154</v>
-      </c>
-      <c r="E245" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="C246" t="s">
+        <v>109</v>
+      </c>
+      <c r="D246" t="s">
+        <v>472</v>
+      </c>
+      <c r="E246" t="s">
         <v>607</v>
-      </c>
-      <c r="C246" t="s">
-        <v>110</v>
-      </c>
-      <c r="D246" t="s">
-        <v>473</v>
-      </c>
-      <c r="E246" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C247" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D247" t="s">
         <v>55</v>
       </c>
       <c r="E247" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C248" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D248" t="s">
         <v>36</v>
       </c>
       <c r="E248" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C249" t="s">
+        <v>551</v>
+      </c>
+      <c r="D249" t="s">
         <v>552</v>
       </c>
-      <c r="D249" t="s">
+      <c r="E249" t="s">
         <v>553</v>
-      </c>
-      <c r="E249" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C250" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D250" t="s">
         <v>55</v>
       </c>
       <c r="E250" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C251" t="s">
+        <v>535</v>
+      </c>
+      <c r="D251" t="s">
         <v>536</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>537</v>
-      </c>
-      <c r="E251" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C252" t="s">
         <v>76</v>
       </c>
       <c r="D252" t="s">
+        <v>611</v>
+      </c>
+      <c r="E252" t="s">
         <v>612</v>
-      </c>
-      <c r="E252" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C253" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D253" t="s">
         <v>32</v>
       </c>
       <c r="E253" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C254" t="s">
+        <v>291</v>
+      </c>
+      <c r="D254" t="s">
+        <v>167</v>
+      </c>
+      <c r="E254" t="s">
         <v>292</v>
-      </c>
-      <c r="D254" t="s">
-        <v>168</v>
-      </c>
-      <c r="E254" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C255" t="s">
+        <v>419</v>
+      </c>
+      <c r="D255" t="s">
         <v>420</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>421</v>
-      </c>
-      <c r="E255" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C256" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D256" t="s">
         <v>36</v>
       </c>
       <c r="E256" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C257" t="s">
+        <v>291</v>
+      </c>
+      <c r="D257" t="s">
+        <v>167</v>
+      </c>
+      <c r="E257" t="s">
         <v>292</v>
-      </c>
-      <c r="D257" t="s">
-        <v>168</v>
-      </c>
-      <c r="E257" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C258" t="s">
+        <v>209</v>
+      </c>
+      <c r="D258" t="s">
         <v>210</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>211</v>
-      </c>
-      <c r="E258" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C259" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D259" t="s">
         <v>94</v>
       </c>
       <c r="E259" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C260" t="s">
+        <v>201</v>
+      </c>
+      <c r="D260" t="s">
         <v>202</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>203</v>
-      </c>
-      <c r="E260" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C261" t="s">
+        <v>467</v>
+      </c>
+      <c r="D261" t="s">
         <v>468</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>469</v>
-      </c>
-      <c r="E261" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="C262" t="s">
         <v>619</v>
-      </c>
-      <c r="C262" t="s">
-        <v>620</v>
       </c>
       <c r="D262" t="s">
         <v>49</v>
       </c>
       <c r="E262" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C263" t="s">
+        <v>155</v>
+      </c>
+      <c r="D263" t="s">
         <v>156</v>
       </c>
-      <c r="D263" t="s">
+      <c r="E263" t="s">
         <v>157</v>
-      </c>
-      <c r="E263" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" s="24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C264" t="s">
+        <v>238</v>
+      </c>
+      <c r="D264" t="s">
+        <v>198</v>
+      </c>
+      <c r="E264" t="s">
         <v>239</v>
-      </c>
-      <c r="D264" t="s">
-        <v>199</v>
-      </c>
-      <c r="E264" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B265" s="24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C265" t="s">
+        <v>201</v>
+      </c>
+      <c r="D265" t="s">
         <v>202</v>
       </c>
-      <c r="D265" t="s">
+      <c r="E265" t="s">
         <v>203</v>
-      </c>
-      <c r="E265" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C266" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D266" t="s">
         <v>36</v>
       </c>
       <c r="E266" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B267" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C267" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D267" t="s">
         <v>94</v>
       </c>
       <c r="E267" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B268" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C268" t="s">
         <v>89</v>
@@ -10452,54 +10450,54 @@
         <v>36</v>
       </c>
       <c r="E268" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C269" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D269" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E269" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C270" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D270" t="s">
         <v>43</v>
       </c>
       <c r="E270" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C271" t="s">
+        <v>419</v>
+      </c>
+      <c r="D271" t="s">
         <v>420</v>
       </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
         <v>421</v>
-      </c>
-      <c r="E271" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C272" t="s">
         <v>58</v>
@@ -10508,642 +10506,642 @@
         <v>59</v>
       </c>
       <c r="E272" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C273" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D273" t="s">
         <v>36</v>
       </c>
       <c r="E273" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C274" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D274" t="s">
         <v>36</v>
       </c>
       <c r="E274" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C275" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D275" t="s">
         <v>55</v>
       </c>
       <c r="E275" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C276" t="s">
+        <v>298</v>
+      </c>
+      <c r="D276" t="s">
         <v>299</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>300</v>
-      </c>
-      <c r="E276" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C277" t="s">
+        <v>158</v>
+      </c>
+      <c r="D277" t="s">
         <v>159</v>
       </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>160</v>
-      </c>
-      <c r="E277" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="C278" t="s">
         <v>636</v>
-      </c>
-      <c r="C278" t="s">
-        <v>637</v>
       </c>
       <c r="D278" t="s">
         <v>28</v>
       </c>
       <c r="E278" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C279" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D279" t="s">
         <v>43</v>
       </c>
       <c r="E279" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="C280" t="s">
         <v>640</v>
-      </c>
-      <c r="C280" t="s">
-        <v>641</v>
       </c>
       <c r="D280" t="s">
         <v>28</v>
       </c>
       <c r="E280" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C281" t="s">
+        <v>201</v>
+      </c>
+      <c r="D281" t="s">
         <v>202</v>
       </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>203</v>
-      </c>
-      <c r="E281" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C282" t="s">
+        <v>201</v>
+      </c>
+      <c r="D282" t="s">
         <v>202</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>203</v>
-      </c>
-      <c r="E282" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="C283" t="s">
         <v>645</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
+        <v>139</v>
+      </c>
+      <c r="E283" t="s">
         <v>646</v>
-      </c>
-      <c r="D283" t="s">
-        <v>140</v>
-      </c>
-      <c r="E283" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C284" t="s">
         <v>76</v>
       </c>
       <c r="D284" t="s">
+        <v>611</v>
+      </c>
+      <c r="E284" t="s">
         <v>612</v>
-      </c>
-      <c r="E284" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C285" t="s">
+        <v>294</v>
+      </c>
+      <c r="D285" t="s">
         <v>295</v>
       </c>
-      <c r="D285" t="s">
+      <c r="E285" t="s">
         <v>296</v>
-      </c>
-      <c r="E285" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C286" t="s">
+        <v>158</v>
+      </c>
+      <c r="D286" t="s">
         <v>159</v>
       </c>
-      <c r="D286" t="s">
+      <c r="E286" t="s">
         <v>160</v>
-      </c>
-      <c r="E286" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C287" t="s">
+        <v>551</v>
+      </c>
+      <c r="D287" t="s">
         <v>552</v>
       </c>
-      <c r="D287" t="s">
+      <c r="E287" t="s">
         <v>553</v>
-      </c>
-      <c r="E287" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C288" t="s">
         <v>652</v>
       </c>
-      <c r="C288" t="s">
-        <v>653</v>
-      </c>
       <c r="D288" t="s">
+        <v>496</v>
+      </c>
+      <c r="E288" t="s">
         <v>497</v>
-      </c>
-      <c r="E288" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C289" t="s">
+        <v>228</v>
+      </c>
+      <c r="D289" t="s">
         <v>229</v>
       </c>
-      <c r="D289" t="s">
+      <c r="E289" t="s">
         <v>230</v>
-      </c>
-      <c r="E289" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C290" t="s">
+        <v>551</v>
+      </c>
+      <c r="D290" t="s">
         <v>552</v>
       </c>
-      <c r="D290" t="s">
+      <c r="E290" t="s">
         <v>553</v>
-      </c>
-      <c r="E290" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C291" t="s">
+        <v>152</v>
+      </c>
+      <c r="D291" t="s">
         <v>153</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291" t="s">
         <v>154</v>
-      </c>
-      <c r="E291" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C292" t="s">
+        <v>155</v>
+      </c>
+      <c r="D292" t="s">
         <v>156</v>
       </c>
-      <c r="D292" t="s">
+      <c r="E292" t="s">
         <v>157</v>
-      </c>
-      <c r="E292" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C293" t="s">
         <v>63</v>
       </c>
       <c r="D293" t="s">
+        <v>164</v>
+      </c>
+      <c r="E293" t="s">
         <v>165</v>
-      </c>
-      <c r="E293" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C294" t="s">
+        <v>186</v>
+      </c>
+      <c r="D294" t="s">
         <v>187</v>
       </c>
-      <c r="D294" t="s">
+      <c r="E294" t="s">
         <v>188</v>
-      </c>
-      <c r="E294" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C295" t="s">
+        <v>214</v>
+      </c>
+      <c r="D295" t="s">
         <v>215</v>
       </c>
-      <c r="D295" t="s">
+      <c r="E295" t="s">
         <v>216</v>
-      </c>
-      <c r="E295" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C296" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D296" t="s">
         <v>43</v>
       </c>
       <c r="E296" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C297" t="s">
+        <v>197</v>
+      </c>
+      <c r="D297" t="s">
         <v>198</v>
       </c>
-      <c r="D297" t="s">
+      <c r="E297" t="s">
         <v>199</v>
-      </c>
-      <c r="E297" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="24" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C298" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D298" t="s">
         <v>28</v>
       </c>
       <c r="E298" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="24" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C299" t="s">
+        <v>114</v>
+      </c>
+      <c r="D299" t="s">
         <v>115</v>
       </c>
-      <c r="D299" t="s">
-        <v>116</v>
-      </c>
       <c r="E299" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C300" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D300" t="s">
         <v>55</v>
       </c>
       <c r="E300" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C301" t="s">
+        <v>186</v>
+      </c>
+      <c r="D301" t="s">
         <v>187</v>
       </c>
-      <c r="D301" t="s">
+      <c r="E301" t="s">
         <v>188</v>
-      </c>
-      <c r="E301" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C302" t="s">
+        <v>238</v>
+      </c>
+      <c r="D302" t="s">
+        <v>198</v>
+      </c>
+      <c r="E302" t="s">
         <v>239</v>
-      </c>
-      <c r="D302" t="s">
-        <v>199</v>
-      </c>
-      <c r="E302" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C303" t="s">
+        <v>291</v>
+      </c>
+      <c r="D303" t="s">
+        <v>167</v>
+      </c>
+      <c r="E303" t="s">
         <v>292</v>
-      </c>
-      <c r="D303" t="s">
-        <v>168</v>
-      </c>
-      <c r="E303" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C304" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D304" t="s">
         <v>50</v>
       </c>
       <c r="E304" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C305" t="s">
         <v>76</v>
       </c>
       <c r="D305" t="s">
+        <v>611</v>
+      </c>
+      <c r="E305" t="s">
         <v>612</v>
-      </c>
-      <c r="E305" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C306" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D306" t="s">
         <v>32</v>
       </c>
       <c r="E306" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C307" t="s">
+        <v>238</v>
+      </c>
+      <c r="D307" t="s">
+        <v>198</v>
+      </c>
+      <c r="E307" t="s">
         <v>239</v>
-      </c>
-      <c r="D307" t="s">
-        <v>199</v>
-      </c>
-      <c r="E307" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B308" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C308" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D308" t="s">
+        <v>379</v>
+      </c>
+      <c r="E308" t="s">
         <v>380</v>
-      </c>
-      <c r="E308" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C309" t="s">
+        <v>467</v>
+      </c>
+      <c r="D309" t="s">
         <v>468</v>
       </c>
-      <c r="D309" t="s">
+      <c r="E309" t="s">
         <v>469</v>
-      </c>
-      <c r="E309" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C310" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D310" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E310" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C311" t="s">
+        <v>155</v>
+      </c>
+      <c r="D311" t="s">
         <v>156</v>
       </c>
-      <c r="D311" t="s">
+      <c r="E311" t="s">
         <v>157</v>
-      </c>
-      <c r="E311" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C312" t="s">
         <v>672</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
+        <v>420</v>
+      </c>
+      <c r="E312" t="s">
         <v>673</v>
-      </c>
-      <c r="D312" t="s">
-        <v>421</v>
-      </c>
-      <c r="E312" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B313" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C313" t="s">
+        <v>281</v>
+      </c>
+      <c r="D313" t="s">
         <v>282</v>
       </c>
-      <c r="D313" t="s">
+      <c r="E313" t="s">
         <v>283</v>
-      </c>
-      <c r="E313" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C314" t="s">
+        <v>434</v>
+      </c>
+      <c r="D314" t="s">
+        <v>149</v>
+      </c>
+      <c r="E314" t="s">
         <v>435</v>
-      </c>
-      <c r="D314" t="s">
-        <v>150</v>
-      </c>
-      <c r="E314" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C315" t="s">
         <v>63</v>
       </c>
       <c r="D315" t="s">
+        <v>164</v>
+      </c>
+      <c r="E315" t="s">
         <v>165</v>
-      </c>
-      <c r="E315" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B316" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C316" t="s">
+        <v>228</v>
+      </c>
+      <c r="D316" t="s">
         <v>229</v>
       </c>
-      <c r="D316" t="s">
+      <c r="E316" t="s">
         <v>230</v>
-      </c>
-      <c r="E316" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C317" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D317" t="s">
         <v>30</v>
       </c>
       <c r="E317" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" s="24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C318" t="s">
         <v>89</v>
@@ -11152,222 +11150,222 @@
         <v>36</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" s="24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C319" t="s">
+        <v>182</v>
+      </c>
+      <c r="D319" t="s">
         <v>183</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
         <v>184</v>
-      </c>
-      <c r="E319" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B320" s="24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C320" t="s">
+        <v>238</v>
+      </c>
+      <c r="D320" t="s">
+        <v>198</v>
+      </c>
+      <c r="E320" t="s">
         <v>239</v>
-      </c>
-      <c r="D320" t="s">
-        <v>199</v>
-      </c>
-      <c r="E320" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="C321" t="s">
         <v>681</v>
-      </c>
-      <c r="C321" t="s">
-        <v>682</v>
       </c>
       <c r="D321" t="s">
         <v>37</v>
       </c>
       <c r="E321" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C322" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D322" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E322" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C323" t="s">
+        <v>434</v>
+      </c>
+      <c r="D323" t="s">
+        <v>149</v>
+      </c>
+      <c r="E323" t="s">
         <v>435</v>
-      </c>
-      <c r="D323" t="s">
-        <v>150</v>
-      </c>
-      <c r="E323" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C324" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D324" t="s">
         <v>94</v>
       </c>
       <c r="E324" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C325" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D325" t="s">
         <v>36</v>
       </c>
       <c r="E325" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C326" t="s">
+        <v>467</v>
+      </c>
+      <c r="D326" t="s">
         <v>468</v>
       </c>
-      <c r="D326" t="s">
+      <c r="E326" t="s">
         <v>469</v>
-      </c>
-      <c r="E326" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C327" t="s">
+        <v>155</v>
+      </c>
+      <c r="D327" t="s">
         <v>156</v>
       </c>
-      <c r="D327" t="s">
+      <c r="E327" t="s">
         <v>157</v>
-      </c>
-      <c r="E327" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C328" t="s">
+        <v>395</v>
+      </c>
+      <c r="D328" t="s">
+        <v>162</v>
+      </c>
+      <c r="E328" t="s">
         <v>396</v>
-      </c>
-      <c r="D328" t="s">
-        <v>163</v>
-      </c>
-      <c r="E328" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C329" t="s">
+        <v>201</v>
+      </c>
+      <c r="D329" t="s">
         <v>202</v>
       </c>
-      <c r="D329" t="s">
+      <c r="E329" t="s">
         <v>203</v>
-      </c>
-      <c r="E329" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C330" t="s">
+        <v>201</v>
+      </c>
+      <c r="D330" t="s">
         <v>202</v>
       </c>
-      <c r="D330" t="s">
+      <c r="E330" t="s">
         <v>203</v>
-      </c>
-      <c r="E330" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="C331" t="s">
+        <v>120</v>
+      </c>
+      <c r="D331" t="s">
         <v>693</v>
       </c>
-      <c r="C331" t="s">
-        <v>121</v>
-      </c>
-      <c r="D331" t="s">
+      <c r="E331" t="s">
         <v>694</v>
-      </c>
-      <c r="E331" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C332" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D332" t="s">
         <v>36</v>
       </c>
       <c r="E332" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="24" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C333" t="s">
+        <v>158</v>
+      </c>
+      <c r="D333" t="s">
         <v>159</v>
       </c>
-      <c r="D333" t="s">
+      <c r="E333" t="s">
         <v>160</v>
-      </c>
-      <c r="E333" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C334" t="s">
         <v>62</v>
@@ -11376,7 +11374,7 @@
         <v>52</v>
       </c>
       <c r="E334" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.25">
@@ -11384,13 +11382,13 @@
         <v>8</v>
       </c>
       <c r="C335" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D335" t="s">
         <v>39</v>
       </c>
       <c r="E335" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.25">
@@ -11398,125 +11396,125 @@
         <v>8</v>
       </c>
       <c r="C336" t="s">
+        <v>278</v>
+      </c>
+      <c r="D336" t="s">
         <v>279</v>
       </c>
-      <c r="D336" t="s">
+      <c r="E336" t="s">
         <v>280</v>
-      </c>
-      <c r="E336" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B337" s="24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C337" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D337" t="s">
         <v>38</v>
       </c>
       <c r="E337" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B338" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="C338" t="s">
         <v>702</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>703</v>
       </c>
-      <c r="D338" t="s">
+      <c r="E338" t="s">
         <v>704</v>
-      </c>
-      <c r="E338" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" s="24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C339" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D339" t="s">
         <v>37</v>
       </c>
       <c r="E339" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B340" s="24" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C340" t="s">
+        <v>201</v>
+      </c>
+      <c r="D340" t="s">
         <v>202</v>
       </c>
-      <c r="D340" t="s">
+      <c r="E340" t="s">
         <v>203</v>
-      </c>
-      <c r="E340" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B341" s="24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C341" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D341" t="s">
         <v>94</v>
       </c>
       <c r="E341" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B342" s="24" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C342" t="s">
+        <v>197</v>
+      </c>
+      <c r="D342" t="s">
         <v>198</v>
       </c>
-      <c r="D342" t="s">
+      <c r="E342" t="s">
         <v>199</v>
-      </c>
-      <c r="E342" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C343" t="s">
+        <v>205</v>
+      </c>
+      <c r="D343" t="s">
         <v>206</v>
       </c>
-      <c r="D343" t="s">
+      <c r="E343" t="s">
         <v>207</v>
-      </c>
-      <c r="E343" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C344" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D344" t="s">
         <v>94</v>
       </c>
       <c r="E344" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -11541,22 +11539,22 @@
   <sheetData>
     <row r="4" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F4" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F5" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F6" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F7" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -11584,27 +11582,27 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>847</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>849</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>850</v>
-      </c>
       <c r="I2" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="13">
         <v>6</v>
@@ -11616,7 +11614,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I3" s="13">
         <v>3</v>
@@ -11624,7 +11622,7 @@
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D4" s="13">
         <v>2</v>
@@ -11636,7 +11634,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I4" s="13">
         <v>7</v>
@@ -11644,7 +11642,7 @@
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="13">
         <v>3</v>
@@ -11656,7 +11654,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I5" s="13">
         <v>5</v>
@@ -11664,7 +11662,7 @@
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
@@ -11676,7 +11674,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I6" s="13">
         <v>3</v>
@@ -11696,7 +11694,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I7" s="13">
         <v>8</v>
@@ -11716,7 +11714,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
@@ -11724,7 +11722,7 @@
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -11736,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I9" s="13">
         <v>2</v>
@@ -11756,7 +11754,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I10" s="13">
         <v>7</v>
@@ -11776,7 +11774,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I11" s="13">
         <v>5</v>
@@ -11784,7 +11782,7 @@
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D12" s="13">
         <v>8</v>
@@ -11796,7 +11794,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I12" s="13">
         <v>6</v>
@@ -11816,7 +11814,7 @@
         <v>65</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I13" s="13">
         <v>3</v>
@@ -11836,7 +11834,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I14" s="13">
         <v>6</v>
@@ -11856,7 +11854,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I15" s="13">
         <v>2</v>
@@ -11876,7 +11874,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I16" s="13">
         <v>4</v>
@@ -11884,7 +11882,7 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D17" s="13">
         <v>8</v>
@@ -11896,7 +11894,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I17" s="13">
         <v>4</v>
@@ -11904,7 +11902,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="13">
         <v>6</v>
@@ -11916,7 +11914,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I18" s="13">
         <v>1</v>
@@ -11936,7 +11934,7 @@
         <v>22</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I19" s="13">
         <v>2</v>
@@ -11956,7 +11954,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I20" s="13">
         <v>2</v>
@@ -11964,7 +11962,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D21" s="13">
         <v>5</v>
@@ -11976,7 +11974,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I21" s="13">
         <v>9</v>
@@ -11996,7 +11994,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I22" s="13">
         <v>1</v>
@@ -12004,7 +12002,7 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -12016,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I23" s="13">
         <v>2</v>
@@ -12024,7 +12022,7 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D24" s="13">
         <v>9</v>
@@ -12036,7 +12034,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I24" s="13">
         <v>1</v>
@@ -12044,7 +12042,7 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -12056,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I25" s="13">
         <v>1</v>
@@ -12064,7 +12062,7 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -12076,7 +12074,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I26" s="13">
         <v>5</v>
@@ -12084,7 +12082,7 @@
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D27" s="13">
         <v>4</v>
@@ -12096,7 +12094,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I27" s="13">
         <v>12</v>
@@ -12116,7 +12114,7 @@
         <v>111</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I28" s="13">
         <v>1</v>
@@ -12124,7 +12122,7 @@
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="13" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -12136,7 +12134,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I29" s="13">
         <v>3</v>
@@ -12144,7 +12142,7 @@
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="13">
         <v>7</v>
@@ -12156,7 +12154,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I30" s="13">
         <v>6</v>
@@ -12164,7 +12162,7 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D31" s="13">
         <v>3</v>
@@ -12176,7 +12174,7 @@
         <v>6</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I31" s="13">
         <v>4</v>
@@ -12212,7 +12210,7 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -12226,7 +12224,7 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -12282,7 +12280,7 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="13">
         <v>5</v>
@@ -12324,7 +12322,7 @@
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D42" s="13">
         <v>2</v>
@@ -12352,7 +12350,7 @@
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D44" s="13">
         <v>2</v>
@@ -12394,7 +12392,7 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
@@ -12422,7 +12420,7 @@
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D49" s="13">
         <v>2</v>
@@ -12436,7 +12434,7 @@
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D50" s="13">
         <v>6</v>
@@ -12450,7 +12448,7 @@
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
@@ -12492,7 +12490,7 @@
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D54" s="13">
         <v>3</v>
@@ -12520,7 +12518,7 @@
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56" s="13">
         <v>4</v>
@@ -12576,7 +12574,7 @@
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -12604,7 +12602,7 @@
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D62" s="13">
         <v>3</v>
